--- a/英語論文/別冊C-1：評価シート_英訳.xlsx
+++ b/英語論文/別冊C-1：評価シート_英訳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\くぴぽ\Desktop\JGS\英訳\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B4567-4A80-413F-B457-B265C7A587A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7CF602-CD33-4FF4-97A7-2AD85AD5A519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">‐ </t>
   </si>
   <si>
-    <t>本</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (56% of the total deliverables)</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
   </si>
   <si>
     <t>Managing the overall configuration of services that use serverless is difficult.</t>
-  </si>
-  <si>
-    <t>overall system configuration</t>
   </si>
   <si>
     <t>Backups Primary bkups, secondary bkups, generation management Restore Methodology, Summary of Restoration Tasks Required</t>
@@ -751,6 +745,14 @@
   </si>
   <si>
     <t>※ Documentation in the construction process refers to the construction procedure.</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>doc</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Overall system configuration</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1532,71 +1534,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,7 +1989,7 @@
   <dimension ref="A1:AME949"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2008,12 +2010,12 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -2021,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -2029,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -2037,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -2069,7 +2071,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -2099,14 +2101,14 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="4">
         <f>COUNTIF(H16:H83,"○")</f>
         <v>38</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2135,7 +2137,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2165,13 +2167,13 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="4">
         <v>38</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3"/>
       <c r="I11" s="2"/>
@@ -2199,13 +2201,13 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3"/>
       <c r="I12" s="2"/>
@@ -2233,13 +2235,13 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3"/>
       <c r="I13" s="2"/>
@@ -2272,12 +2274,12 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="62"/>
+      <c r="G14" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="74"/>
       <c r="I14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
@@ -2285,32 +2287,32 @@
     <row r="15" spans="1:30" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="K15" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2319,32 +2321,32 @@
         <f t="shared" ref="B16:B47" si="0">ROW()-15</f>
         <v>1</v>
       </c>
-      <c r="C16" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="G16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="J16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="I16" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="60" t="s">
+      <c r="K16" s="25" t="s">
         <v>16</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2353,26 +2355,26 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="65"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="79"/>
+      <c r="J17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="49" t="s">
+      <c r="K17" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2381,13 +2383,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="65"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>0</v>
@@ -2395,12 +2397,12 @@
       <c r="H18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="66"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2409,28 +2411,28 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="65"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="G19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>21</v>
-      </c>
       <c r="J19" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2439,14 +2441,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="65"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="G20" s="28" t="s">
         <v>0</v>
       </c>
@@ -2454,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2469,13 +2471,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="65"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>0</v>
@@ -2484,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2499,13 +2501,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="65"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>0</v>
@@ -2514,13 +2516,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="J22" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2529,14 +2531,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="65"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>27</v>
-      </c>
       <c r="G23" s="28" t="s">
         <v>0</v>
       </c>
@@ -2544,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="J23" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2559,14 +2561,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="65"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>29</v>
-      </c>
       <c r="G24" s="28" t="s">
         <v>0</v>
       </c>
@@ -2574,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2589,14 +2591,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="65"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="G25" s="28" t="s">
         <v>0</v>
       </c>
@@ -2604,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="I25" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="J25" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2619,14 +2621,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>33</v>
-      </c>
       <c r="G26" s="28" t="s">
         <v>0</v>
       </c>
@@ -2634,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2649,30 +2651,30 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="67" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="F27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>36</v>
-      </c>
       <c r="G27" s="28" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="J27" s="49" t="s">
-        <v>16</v>
-      </c>
       <c r="K27" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2681,13 +2683,13 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="65"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>0</v>
@@ -2695,12 +2697,12 @@
       <c r="H28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="68"/>
+      <c r="I28" s="80"/>
       <c r="J28" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2709,13 +2711,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="65"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>0</v>
@@ -2723,12 +2725,12 @@
       <c r="H29" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="80"/>
       <c r="J29" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2737,13 +2739,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J30" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2767,13 +2769,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="65"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>0</v>
@@ -2782,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2797,13 +2799,13 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="65"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>0</v>
@@ -2812,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2827,13 +2829,13 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>0</v>
@@ -2842,13 +2844,13 @@
         <v>1</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2857,13 +2859,13 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="65"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>0</v>
@@ -2872,13 +2874,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2887,28 +2889,28 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="65"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="J35" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="49" t="s">
-        <v>53</v>
-      </c>
       <c r="K35" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2917,13 +2919,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="65"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>0</v>
@@ -2932,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2947,13 +2949,13 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="65"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2977,13 +2979,13 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>0</v>
@@ -2992,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3007,13 +3009,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="67"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>0</v>
@@ -3022,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3037,16 +3039,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="69" t="s">
+      <c r="C40" s="75"/>
+      <c r="D40" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>63</v>
-      </c>
       <c r="G40" s="35" t="s">
         <v>0</v>
       </c>
@@ -3054,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3069,13 +3071,13 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="69"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="81"/>
       <c r="E41" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G41" s="42" t="s">
         <v>0</v>
@@ -3084,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="45" t="s">
         <v>16</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="45" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3099,32 +3101,32 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C42" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>202</v>
+      <c r="C42" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>200</v>
       </c>
       <c r="E42" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="47" t="s">
-        <v>68</v>
-      </c>
       <c r="K42" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3133,13 +3135,13 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>0</v>
@@ -3148,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J43" s="49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3163,28 +3165,28 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3193,13 +3195,13 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>0</v>
@@ -3208,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J45" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3223,13 +3225,13 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="I46" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="J46" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3253,13 +3255,13 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="64"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>0</v>
@@ -3268,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="I47" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="J47" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3283,30 +3285,30 @@
         <f t="shared" ref="B48:B83" si="1">ROW()-15</f>
         <v>33</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="72" t="s">
-        <v>134</v>
+      <c r="C48" s="62"/>
+      <c r="D48" s="83" t="s">
+        <v>132</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="J48" s="49" t="s">
-        <v>16</v>
-      </c>
       <c r="K48" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3315,13 +3317,13 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="72"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>0</v>
@@ -3330,13 +3332,13 @@
         <v>1</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J49" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3345,13 +3347,13 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="72"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J50" s="49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3375,13 +3377,13 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="72"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="83"/>
       <c r="E51" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>1</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J51" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3404,13 +3406,13 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="72"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="83"/>
       <c r="E52" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>0</v>
@@ -3419,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J52" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K52" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3433,13 +3435,13 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="72"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="83"/>
       <c r="E53" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>0</v>
@@ -3448,13 +3450,13 @@
         <v>1</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3462,28 +3464,28 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="72"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J54" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3491,13 +3493,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="72"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J55" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3520,13 +3522,13 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="72"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>0</v>
@@ -3535,13 +3537,13 @@
         <v>1</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J56" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3549,13 +3551,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="72"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>0</v>
@@ -3564,13 +3566,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J57" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3578,28 +3580,28 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="72"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>0</v>
       </c>
       <c r="H58" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J58" s="49" t="s">
-        <v>16</v>
-      </c>
       <c r="K58" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3608,30 +3610,30 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C59" s="70"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F59" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="78" t="s">
+      <c r="K59" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="K59" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3640,13 +3642,13 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>0</v>
@@ -3654,10 +3656,10 @@
       <c r="H60" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="81"/>
-      <c r="J60" s="79"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="64"/>
       <c r="K60" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3666,13 +3668,13 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>0</v>
@@ -3680,10 +3682,10 @@
       <c r="H61" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I61" s="81"/>
-      <c r="J61" s="79"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="64"/>
       <c r="K61" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3692,13 +3694,13 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
       <c r="E62" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="52" t="s">
         <v>0</v>
@@ -3706,10 +3708,10 @@
       <c r="H62" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="I62" s="81"/>
-      <c r="J62" s="79"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="64"/>
       <c r="K62" s="54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3718,17 +3720,17 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C63" s="75" t="s">
-        <v>137</v>
+      <c r="C63" s="77" t="s">
+        <v>135</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="I63" s="56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J63" s="47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K63" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3752,30 +3754,30 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="76" t="s">
-        <v>135</v>
+      <c r="C64" s="77"/>
+      <c r="D64" s="78" t="s">
+        <v>133</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G64" s="57" t="s">
         <v>0</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="74" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="I64" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="66" t="s">
+        <v>20</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3784,24 +3786,24 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
       <c r="E65" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G65" s="57" t="s">
         <v>0</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="79"/>
-      <c r="J65" s="81"/>
+        <v>14</v>
+      </c>
+      <c r="I65" s="64"/>
+      <c r="J65" s="67"/>
       <c r="K65" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="24.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -3810,24 +3812,24 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
       <c r="E66" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G66" s="57" t="s">
         <v>0</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="80"/>
-      <c r="J66" s="83"/>
+        <v>14</v>
+      </c>
+      <c r="I66" s="65"/>
+      <c r="J66" s="69"/>
       <c r="K66" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3836,28 +3838,28 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
       <c r="E67" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F67" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="36" t="s">
+      <c r="J67" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I67" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J67" s="26" t="s">
-        <v>16</v>
-      </c>
       <c r="K67" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3866,28 +3868,28 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
       <c r="E68" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G68" s="57" t="s">
         <v>0</v>
       </c>
       <c r="H68" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I68" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J68" s="26" t="s">
-        <v>16</v>
-      </c>
       <c r="K68" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3896,28 +3898,28 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
       <c r="E69" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G69" s="57" t="s">
         <v>0</v>
       </c>
       <c r="H69" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J69" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J69" s="26" t="s">
-        <v>16</v>
-      </c>
       <c r="K69" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3926,28 +3928,28 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
       <c r="E70" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G70" s="57" t="s">
         <v>0</v>
       </c>
       <c r="H70" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J70" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I70" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J70" s="26" t="s">
-        <v>16</v>
-      </c>
       <c r="K70" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3956,28 +3958,28 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G71" s="57" t="s">
         <v>0</v>
       </c>
       <c r="H71" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J71" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J71" s="26" t="s">
-        <v>16</v>
-      </c>
       <c r="K71" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3986,13 +3988,13 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
       <c r="E72" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G72" s="57" t="s">
         <v>0</v>
@@ -4000,14 +4002,14 @@
       <c r="H72" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="78" t="s">
-        <v>114</v>
+      <c r="I72" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="J72" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="K72" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4016,13 +4018,13 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
       <c r="E73" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G73" s="58" t="s">
         <v>0</v>
@@ -4030,12 +4032,12 @@
       <c r="H73" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="82"/>
+      <c r="I73" s="68"/>
       <c r="J73" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="45" t="s">
         <v>16</v>
-      </c>
-      <c r="K73" s="45" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4044,17 +4046,17 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C74" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="D74" s="64" t="s">
-        <v>195</v>
+      <c r="C74" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="71" t="s">
+        <v>193</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>0</v>
@@ -4063,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="I74" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="48" t="s">
         <v>16</v>
-      </c>
-      <c r="J74" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="48" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4078,13 +4080,13 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="64"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="71"/>
       <c r="E75" s="61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>0</v>
@@ -4093,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="I75" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="J75" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4108,15 +4110,15 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="67" t="s">
-        <v>196</v>
+      <c r="C76" s="70"/>
+      <c r="D76" s="72" t="s">
+        <v>194</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>0</v>
@@ -4125,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="I76" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4140,13 +4142,13 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
       <c r="E77" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>0</v>
@@ -4155,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="I77" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="J77" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4171,16 +4173,16 @@
         <v>63</v>
       </c>
       <c r="C78" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="67" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="D78" s="72" t="s">
+        <v>195</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="I78" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="J78" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4205,12 +4207,12 @@
         <v>64</v>
       </c>
       <c r="C79" s="73"/>
-      <c r="D79" s="67"/>
+      <c r="D79" s="72"/>
       <c r="E79" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>0</v>
@@ -4219,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="I79" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="J79" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4236,13 +4238,13 @@
       </c>
       <c r="C80" s="73"/>
       <c r="D80" s="73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>0</v>
@@ -4251,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="I80" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="J80" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4269,10 +4271,10 @@
       <c r="C81" s="73"/>
       <c r="D81" s="73"/>
       <c r="E81" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F81" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G81" s="42" t="s">
         <v>0</v>
@@ -4281,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="I81" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="45" t="s">
         <v>16</v>
-      </c>
-      <c r="J81" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="45" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4296,17 +4298,17 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C82" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="70" t="s">
-        <v>199</v>
+      <c r="C82" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" s="62" t="s">
+        <v>197</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>0</v>
@@ -4315,13 +4317,13 @@
         <v>0</v>
       </c>
       <c r="I82" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="48" t="s">
         <v>16</v>
-      </c>
-      <c r="J82" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" s="48" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4330,13 +4332,13 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
       <c r="E83" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F83" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G83" s="42" t="s">
         <v>0</v>
@@ -4345,18 +4347,18 @@
         <v>0</v>
       </c>
       <c r="I83" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="45" t="s">
         <v>16</v>
-      </c>
-      <c r="J83" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="45" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -7823,21 +7825,10 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C63:C73"/>
-    <mergeCell ref="D64:D73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="D27:D39"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="C42:C62"/>
     <mergeCell ref="D42:D47"/>
     <mergeCell ref="D48:D58"/>
@@ -7845,10 +7836,21 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C16:C41"/>
     <mergeCell ref="D16:D26"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="D27:D39"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C63:C73"/>
+    <mergeCell ref="D64:D73"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
